--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ccl3</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>100.105948519838</v>
+        <v>0.2117663333333333</v>
       </c>
       <c r="H2">
-        <v>100.105948519838</v>
+        <v>0.6352989999999999</v>
       </c>
       <c r="I2">
-        <v>0.3836102209444223</v>
+        <v>0.0007631503638255414</v>
       </c>
       <c r="J2">
-        <v>0.3836102209444223</v>
+        <v>0.0007638890537190835</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>4145.86840102007</v>
+        <v>0.02494550935644444</v>
       </c>
       <c r="R2">
-        <v>4145.86840102007</v>
+        <v>0.224509584208</v>
       </c>
       <c r="S2">
-        <v>0.1618420271426812</v>
+        <v>7.932465335361071E-07</v>
       </c>
       <c r="T2">
-        <v>0.1618420271426812</v>
+        <v>7.943657941154034E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +599,1475 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>100.105948519838</v>
+        <v>0.2117663333333333</v>
       </c>
       <c r="H3">
-        <v>100.105948519838</v>
+        <v>0.6352989999999999</v>
       </c>
       <c r="I3">
-        <v>0.3836102209444223</v>
+        <v>0.0007631503638255414</v>
       </c>
       <c r="J3">
-        <v>0.3836102209444223</v>
+        <v>0.0007638890537190835</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>5680.982642557755</v>
+        <v>0.004409822125333332</v>
       </c>
       <c r="R3">
-        <v>5680.982642557755</v>
+        <v>0.039688399128</v>
       </c>
       <c r="S3">
-        <v>0.2217681938017411</v>
+        <v>1.402286906411794E-07</v>
       </c>
       <c r="T3">
-        <v>0.2217681938017411</v>
+        <v>1.404265515064786E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>160.851510521227</v>
+        <v>0.2117663333333333</v>
       </c>
       <c r="H4">
-        <v>160.851510521227</v>
+        <v>0.6352989999999999</v>
       </c>
       <c r="I4">
-        <v>0.6163897790555776</v>
+        <v>0.0007631503638255414</v>
       </c>
       <c r="J4">
-        <v>0.6163897790555776</v>
+        <v>0.0007638890537190835</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>6661.63404459575</v>
+        <v>11.45757574703233</v>
       </c>
       <c r="R4">
-        <v>6661.63404459575</v>
+        <v>103.118181723291</v>
       </c>
       <c r="S4">
-        <v>0.2600498263752911</v>
+        <v>0.0003643414176953975</v>
       </c>
       <c r="T4">
-        <v>0.2600498263752911</v>
+        <v>0.0003648554987143382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2117663333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.6352989999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.0007631503638255414</v>
+      </c>
+      <c r="J5">
+        <v>0.0007638890537190835</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N5">
+        <v>176.802616</v>
+      </c>
+      <c r="O5">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P5">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q5">
+        <v>12.48028057135378</v>
+      </c>
+      <c r="R5">
+        <v>112.322525142184</v>
+      </c>
+      <c r="S5">
+        <v>0.0003968625839354469</v>
+      </c>
+      <c r="T5">
+        <v>0.0003974225518985171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2117663333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.6352989999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.0007631503638255414</v>
+      </c>
+      <c r="J6">
+        <v>0.0007638890537190835</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.150414</v>
+      </c>
+      <c r="N6">
+        <v>0.300828</v>
+      </c>
+      <c r="O6">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P6">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q6">
+        <v>0.031852621262</v>
+      </c>
+      <c r="R6">
+        <v>0.191115727572</v>
+      </c>
+      <c r="S6">
+        <v>1.012886970519706E-06</v>
+      </c>
+      <c r="T6">
+        <v>6.762107606062067E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.3670746666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.101224</v>
+      </c>
+      <c r="I7">
+        <v>0.001322840892640187</v>
+      </c>
+      <c r="J7">
+        <v>0.001324121333880179</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.353392</v>
+      </c>
+      <c r="O7">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P7">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q7">
+        <v>0.04324041686755555</v>
+      </c>
+      <c r="R7">
+        <v>0.389163751808</v>
+      </c>
+      <c r="S7">
+        <v>1.375009437519603E-06</v>
+      </c>
+      <c r="T7">
+        <v>1.376949558017471E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.3670746666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.101224</v>
+      </c>
+      <c r="I8">
+        <v>0.001322840892640187</v>
+      </c>
+      <c r="J8">
+        <v>0.001324121333880179</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.020824</v>
+      </c>
+      <c r="N8">
+        <v>0.062472</v>
+      </c>
+      <c r="O8">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P8">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q8">
+        <v>0.007643962858666666</v>
+      </c>
+      <c r="R8">
+        <v>0.068795665728</v>
+      </c>
+      <c r="S8">
+        <v>2.430716869106392E-07</v>
+      </c>
+      <c r="T8">
+        <v>2.434146579109528E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.3670746666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.101224</v>
+      </c>
+      <c r="I9">
+        <v>0.001322840892640187</v>
+      </c>
+      <c r="J9">
+        <v>0.001324121333880179</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.104803</v>
+      </c>
+      <c r="N9">
+        <v>162.314409</v>
+      </c>
+      <c r="O9">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P9">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q9">
+        <v>19.86050252629067</v>
+      </c>
+      <c r="R9">
+        <v>178.744522736616</v>
+      </c>
+      <c r="S9">
+        <v>0.0006315475285813396</v>
+      </c>
+      <c r="T9">
+        <v>0.0006324386339600699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3670746666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.101224</v>
+      </c>
+      <c r="I10">
+        <v>0.001322840892640187</v>
+      </c>
+      <c r="J10">
+        <v>0.001324121333880179</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N10">
+        <v>176.802616</v>
+      </c>
+      <c r="O10">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P10">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q10">
+        <v>21.63325377799822</v>
+      </c>
+      <c r="R10">
+        <v>194.699284001984</v>
+      </c>
+      <c r="S10">
+        <v>0.0006879195498996986</v>
+      </c>
+      <c r="T10">
+        <v>0.0006888901954699954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>160.851510521227</v>
-      </c>
-      <c r="H5">
-        <v>160.851510521227</v>
-      </c>
-      <c r="I5">
-        <v>0.6163897790555776</v>
-      </c>
-      <c r="J5">
-        <v>0.6163897790555776</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="N5">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="O5">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="P5">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="Q5">
-        <v>9128.275120625824</v>
-      </c>
-      <c r="R5">
-        <v>9128.275120625824</v>
-      </c>
-      <c r="S5">
-        <v>0.3563399526802865</v>
-      </c>
-      <c r="T5">
-        <v>0.3563399526802865</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.3670746666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.101224</v>
+      </c>
+      <c r="I11">
+        <v>0.001322840892640187</v>
+      </c>
+      <c r="J11">
+        <v>0.001324121333880179</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>0.055213168912</v>
+      </c>
+      <c r="R11">
+        <v>0.331279013472</v>
+      </c>
+      <c r="S11">
+        <v>1.755733034718445E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.172140234185493E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>114.6337583333333</v>
+      </c>
+      <c r="H12">
+        <v>343.901275</v>
+      </c>
+      <c r="I12">
+        <v>0.4131100208505249</v>
+      </c>
+      <c r="J12">
+        <v>0.4135098898826164</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>13.50355104164444</v>
+      </c>
+      <c r="R12">
+        <v>121.5319593748</v>
+      </c>
+      <c r="S12">
+        <v>0.0004294017372487562</v>
+      </c>
+      <c r="T12">
+        <v>0.0004300076175354829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>114.6337583333333</v>
+      </c>
+      <c r="H13">
+        <v>343.901275</v>
+      </c>
+      <c r="I13">
+        <v>0.4131100208505249</v>
+      </c>
+      <c r="J13">
+        <v>0.4135098898826164</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>2.387133383533333</v>
+      </c>
+      <c r="R13">
+        <v>21.4842004518</v>
+      </c>
+      <c r="S13">
+        <v>7.590886417746949E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.601597060113611E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>114.6337583333333</v>
+      </c>
+      <c r="H14">
+        <v>343.901275</v>
+      </c>
+      <c r="I14">
+        <v>0.4131100208505249</v>
+      </c>
+      <c r="J14">
+        <v>0.4135098898826164</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>6202.236911774608</v>
+      </c>
+      <c r="R14">
+        <v>55820.13220597148</v>
+      </c>
+      <c r="S14">
+        <v>0.1972259960754775</v>
+      </c>
+      <c r="T14">
+        <v>0.1975042794001278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>114.6337583333333</v>
+      </c>
+      <c r="H15">
+        <v>343.901275</v>
+      </c>
+      <c r="I15">
+        <v>0.4131100208505249</v>
+      </c>
+      <c r="J15">
+        <v>0.4135098898826164</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>6755.849451748378</v>
+      </c>
+      <c r="R15">
+        <v>60802.6450657354</v>
+      </c>
+      <c r="S15">
+        <v>0.2148304162531261</v>
+      </c>
+      <c r="T15">
+        <v>0.2151335391865149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>114.6337583333333</v>
+      </c>
+      <c r="H16">
+        <v>343.901275</v>
+      </c>
+      <c r="I16">
+        <v>0.4131100208505249</v>
+      </c>
+      <c r="J16">
+        <v>0.4135098898826164</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>17.24252212595</v>
+      </c>
+      <c r="R16">
+        <v>103.4551327557</v>
+      </c>
+      <c r="S16">
+        <v>0.0005482979204950968</v>
+      </c>
+      <c r="T16">
+        <v>0.0003660477078370882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>161.472051</v>
+      </c>
+      <c r="H17">
+        <v>484.416153</v>
+      </c>
+      <c r="I17">
+        <v>0.5819029518461688</v>
+      </c>
+      <c r="J17">
+        <v>0.5824662036638004</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>19.020977015664</v>
+      </c>
+      <c r="R17">
+        <v>171.188793140976</v>
+      </c>
+      <c r="S17">
+        <v>0.000604851312777364</v>
+      </c>
+      <c r="T17">
+        <v>0.0006057047501415457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>161.472051</v>
+      </c>
+      <c r="H18">
+        <v>484.416153</v>
+      </c>
+      <c r="I18">
+        <v>0.5819029518461688</v>
+      </c>
+      <c r="J18">
+        <v>0.5824662036638004</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>3.362493990024</v>
+      </c>
+      <c r="R18">
+        <v>30.262445910216</v>
+      </c>
+      <c r="S18">
+        <v>0.0001069245235088159</v>
+      </c>
+      <c r="T18">
+        <v>0.0001070753926258734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>161.472051</v>
+      </c>
+      <c r="H19">
+        <v>484.416153</v>
+      </c>
+      <c r="I19">
+        <v>0.5819029518461688</v>
+      </c>
+      <c r="J19">
+        <v>0.5824662036638004</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>8736.413509360953</v>
+      </c>
+      <c r="R19">
+        <v>78627.72158424859</v>
+      </c>
+      <c r="S19">
+        <v>0.2778107126543102</v>
+      </c>
+      <c r="T19">
+        <v>0.278202699969772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>161.472051</v>
+      </c>
+      <c r="H20">
+        <v>484.416153</v>
+      </c>
+      <c r="I20">
+        <v>0.5819029518461688</v>
+      </c>
+      <c r="J20">
+        <v>0.5824662036638004</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>9516.227009228471</v>
+      </c>
+      <c r="R20">
+        <v>85646.04308305625</v>
+      </c>
+      <c r="S20">
+        <v>0.3026081359795133</v>
+      </c>
+      <c r="T20">
+        <v>0.3030351121379421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>161.472051</v>
+      </c>
+      <c r="H21">
+        <v>484.416153</v>
+      </c>
+      <c r="I21">
+        <v>0.5819029518461688</v>
+      </c>
+      <c r="J21">
+        <v>0.5824662036638004</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>24.287657079114</v>
+      </c>
+      <c r="R21">
+        <v>145.725942474684</v>
+      </c>
+      <c r="S21">
+        <v>0.0007723273760591165</v>
+      </c>
+      <c r="T21">
+        <v>0.0005156114133188666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.8050075</v>
+      </c>
+      <c r="H22">
+        <v>1.610015</v>
+      </c>
+      <c r="I22">
+        <v>0.00290103604684073</v>
+      </c>
+      <c r="J22">
+        <v>0.001935896065983939</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.353392</v>
+      </c>
+      <c r="O22">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P22">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q22">
+        <v>0.09482773681333333</v>
+      </c>
+      <c r="R22">
+        <v>0.5689664208799999</v>
+      </c>
+      <c r="S22">
+        <v>3.015443478640299E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.013132153541421E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.8050075</v>
+      </c>
+      <c r="H23">
+        <v>1.610015</v>
+      </c>
+      <c r="I23">
+        <v>0.00290103604684073</v>
+      </c>
+      <c r="J23">
+        <v>0.001935896065983939</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P23">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q23">
+        <v>0.01676347618</v>
+      </c>
+      <c r="R23">
+        <v>0.10058085708</v>
+      </c>
+      <c r="S23">
+        <v>5.330646562390116E-07</v>
+      </c>
+      <c r="T23">
+        <v>3.558778690407244E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.8050075</v>
+      </c>
+      <c r="H24">
+        <v>1.610015</v>
+      </c>
+      <c r="I24">
+        <v>0.00290103604684073</v>
+      </c>
+      <c r="J24">
+        <v>0.001935896065983939</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.104803</v>
+      </c>
+      <c r="N24">
+        <v>162.314409</v>
+      </c>
+      <c r="O24">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P24">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q24">
+        <v>43.5547722010225</v>
+      </c>
+      <c r="R24">
+        <v>261.328633206135</v>
+      </c>
+      <c r="S24">
+        <v>0.001385005676722745</v>
+      </c>
+      <c r="T24">
+        <v>0.0009246399345230597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.8050075</v>
+      </c>
+      <c r="H25">
+        <v>1.610015</v>
+      </c>
+      <c r="I25">
+        <v>0.00290103604684073</v>
+      </c>
+      <c r="J25">
+        <v>0.001935896065983939</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N25">
+        <v>176.802616</v>
+      </c>
+      <c r="O25">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P25">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q25">
+        <v>47.44247729987333</v>
+      </c>
+      <c r="R25">
+        <v>284.65486379924</v>
+      </c>
+      <c r="S25">
+        <v>0.001508631478425502</v>
+      </c>
+      <c r="T25">
+        <v>0.001007173425261005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.8050075</v>
+      </c>
+      <c r="H26">
+        <v>1.610015</v>
+      </c>
+      <c r="I26">
+        <v>0.00290103604684073</v>
+      </c>
+      <c r="J26">
+        <v>0.001935896065983939</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.150414</v>
+      </c>
+      <c r="N26">
+        <v>0.300828</v>
+      </c>
+      <c r="O26">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P26">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q26">
+        <v>0.121084398105</v>
+      </c>
+      <c r="R26">
+        <v>0.48433759242</v>
+      </c>
+      <c r="S26">
+        <v>3.850383557603471E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.713696177291956E-06</v>
       </c>
     </row>
   </sheetData>
